--- a/public/import/daily_template.xlsx
+++ b/public/import/daily_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -30,129 +30,135 @@
     <t>time</t>
   </si>
   <si>
-    <t>2024-10-07</t>
+    <t>2024-11-11</t>
   </si>
   <si>
     <t>09:00</t>
   </si>
   <si>
-    <t>Review achievement AMPM Week 40</t>
+    <t>Review achievement AMPM Week 45</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>Gmeet tim audit Trenly (pembahasan data Pak Firman selisih pengiriman WH ke Toko)</t>
   </si>
   <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>Koordinasi dengan Kanit Reskrim Kedawung perihal cek pos</t>
+    <t>Pembahasan audit gaji CV Maju dengan Mega</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>Review LHP week 44</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>Review proposal gathering</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>Create AMPM Week 46</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>Review AMPM/TAL</t>
+  </si>
+  <si>
+    <t>Review hasil audit AR CV Maju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:30 </t>
+  </si>
+  <si>
+    <t>Hybrid meeting dengan BOD &amp; Chief - Manager</t>
+  </si>
+  <si>
+    <t>Review biaya CV CS, CV Top &amp; Trenly dengan Mega (Mega minta biaya Trenly ke Eva)</t>
+  </si>
+  <si>
+    <t>Morning briefing retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review AMPM/To Do List </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observasi SMS Syariah </t>
+  </si>
+  <si>
+    <t>Review final audit gaji CV Maju dengan Mega</t>
+  </si>
+  <si>
+    <t>Review progress kasus Sales Prima, Surabaya &amp; CS Tegal</t>
+  </si>
+  <si>
+    <t>Review AMPM/To Do List</t>
+  </si>
+  <si>
+    <t>Gmeet Coordinator Internal Audit pembahasan KPI, DC &amp; CP all badan usaha, audit all Gudang, LPJ, proses audit, plan Surabaya</t>
+  </si>
+  <si>
+    <t>Review hasil observasi SMS Syariah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gmeet Internal Audit CV Maju </t>
+  </si>
+  <si>
+    <t>Meeting CV BMS (hasil pemeriksaan SMS Syariah, P&amp;L CV BMS, review appraisal)</t>
+  </si>
+  <si>
+    <t>Meeting Kospin SMS</t>
+  </si>
+  <si>
+    <t>Review audit realisasi bundling, SO retail, buku customer CV CS &amp; MKLI</t>
   </si>
   <si>
     <t>11:00</t>
   </si>
   <si>
-    <t>Gmeet morning briefing Audit Trenly</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>Meet up dengan Ibu Yuli Kospin SMS</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>Create AMPM Week 41</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>Review salah harga penjualan Itel RS4 CV Maju</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>Review LHP week 39</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>Review AMPM/To Do List</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>Review &amp; create plan dengan Joe</t>
-  </si>
-  <si>
-    <t>Review salah harga penjualan Itel RS4 &amp; biaya perdin CV Maju</t>
-  </si>
-  <si>
-    <t>Review laporan keuangan all badan usaha</t>
-  </si>
-  <si>
-    <t>Morning briefing retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review AMPM/To Do List </t>
-  </si>
-  <si>
-    <t>Review prive &amp; laporan keuangan CV BMS dengan Ara</t>
-  </si>
-  <si>
-    <t>Review hasil training Joe dengan Mega</t>
-  </si>
-  <si>
-    <t>Visit &amp; observasi Kospin SMS Cabang Tegal</t>
-  </si>
-  <si>
-    <t>LPJ Coordinator Internal Audit</t>
-  </si>
-  <si>
-    <t>Review SOP submit Busdev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00 </t>
-  </si>
-  <si>
-    <t>Review Review audit CV BMS</t>
-  </si>
-  <si>
-    <t>Meeting Kospin SMS</t>
-  </si>
-  <si>
-    <t>Meeting Internal Audit CS Group</t>
-  </si>
-  <si>
-    <t>Review audit realisasi bundling, SO retail, buku customer CV CS &amp; MKLI</t>
-  </si>
-  <si>
-    <t>2024-10-08</t>
-  </si>
-  <si>
-    <t>2024-10-09</t>
-  </si>
-  <si>
-    <t>2024-10-11</t>
-  </si>
-  <si>
-    <t>2024-10-10</t>
-  </si>
-  <si>
-    <t>2024-10-12</t>
+    <t>Review BAP &amp; proses adjustment stok Trenly</t>
+  </si>
+  <si>
+    <t>2024-11-12</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>2024-11-14</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>2024-11-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -175,9 +181,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,14 +491,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="115.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -573,8 +580,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
+      <c r="A8" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
@@ -584,129 +591,129 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
+      <c r="A20" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
@@ -716,102 +723,102 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
+      <c r="A24" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
+      <c r="A25" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
